--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户详单.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/零售客户详单.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="115">
   <si>
     <t xml:space="preserve">客户ID</t>
   </si>
@@ -71,6 +71,255 @@
     <t xml:space="preserve">专卖证号</t>
   </si>
   <si>
+    <t xml:space="preserve">423030825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005646653265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朝夕</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1档</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都高新世纪城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16025962365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曹禺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市场一部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420002383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00098654665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炸鱼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15689562365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">网上订货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑楚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建议终端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乡村</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川成都一部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4569612366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">422784838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000159684956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13026956956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC0000043582357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00014589566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查明芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19024568525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电话订货</t>
+  </si>
+  <si>
+    <t xml:space="preserve">正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川广安分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周瑜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普通终端</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商圈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">城镇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川成都-广安</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510250101110090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3034688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00056952365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张杰与</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14059623654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC0000043657544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000565653231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韩玉密</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19025695694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1510250200000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420001623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000596235432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甄家峪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19025695696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC0000043608391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0002698456523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">依米</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14026956362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC0000043663720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00026956848956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桑榆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3周</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16026956365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都双流分公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张三</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都-双流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">845DSF5555SD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420002994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000456444465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑雨薇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15026956123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34534534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00065989846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14022569566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5651</t>
+  </si>
+  <si>
     <t xml:space="preserve">123123123</t>
   </si>
   <si>
@@ -80,52 +329,34 @@
     <t xml:space="preserve">张周</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川广安</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1周</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15026956123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">网上订货</t>
-  </si>
-  <si>
-    <t xml:space="preserve">正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川广安分公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑楚</t>
-  </si>
-  <si>
-    <t xml:space="preserve">建议终端</t>
-  </si>
-  <si>
-    <t xml:space="preserve">商圈</t>
-  </si>
-  <si>
     <t xml:space="preserve">小</t>
   </si>
   <si>
-    <t xml:space="preserve">乡村</t>
-  </si>
-  <si>
     <t xml:space="preserve">1231231</t>
   </si>
   <si>
-    <t xml:space="preserve">市场一部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川成都-广安</t>
-  </si>
-  <si>
     <t xml:space="preserve">1561365456456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC0000066660000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001456454566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锦城烟草</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112233</t>
   </si>
 </sst>
 </file>
@@ -259,47 +490,579 @@
       <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Q2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="M3"/>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="O3" t="s">
         <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" t="s">
+        <v>113</v>
+      </c>
+      <c r="S14" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
